--- a/data/trans_dic/P20_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho</t>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>26,54%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,78; 31,52</t>
+          <t>18,08; 45,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 37,55</t>
+          <t>12,51; 40,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,09; 32,17</t>
+          <t>19,09; 35,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,51; 31,51</t>
+          <t>21,95; 37,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,01; 29,93</t>
+          <t>21,08; 36,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 32,16</t>
+          <t>20,56; 35,21</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>24,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,64</t>
+          <t>15,5; 25,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,8</t>
+          <t>13,9; 22,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,05; 36,95</t>
+          <t>27,04; 38,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,81; 32,74</t>
+          <t>24,85; 35,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,61; 28,49</t>
+          <t>22,88; 31,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,79; 26,31</t>
+          <t>20,53; 27,4</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 23,77</t>
+          <t>10,63; 20,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 20,69</t>
+          <t>10,48; 22,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,61; 30,94</t>
+          <t>22,76; 35,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 28,63</t>
+          <t>22,15; 32,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,69; 25,73</t>
+          <t>18,29; 26,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,13</t>
+          <t>17,59; 25,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>20,89%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,81</t>
+          <t>16,12; 22,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 22,07</t>
+          <t>14,09; 23,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,78; 32,55</t>
+          <t>27,05; 33,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 29,33</t>
+          <t>20,35; 27,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,08; 26,59</t>
+          <t>22,21; 26,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 24,95</t>
+          <t>17,93; 23,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26,84%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,05; 21,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 20,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27,98; 32,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24,36; 29,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 26,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 24,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>74865</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69872</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>122918</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>133082</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>197783</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40943; 103500</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42093; 137779</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49950; 92467</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>89718; 154623</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>102897; 178391</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>153224; 262411</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>129203</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>167391</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>235042</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>296811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>364245</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>464201</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>100885; 162971</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>129614; 209979</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>193334; 277901</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>247450; 351323</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>312574; 425926</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>395941; 528409</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>69238</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>105533</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>150699</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>208446</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>219937</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>313978</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48461; 95216</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>75022; 161035</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>121037; 186635</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>169899; 249744</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>180625; 261453</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>260840; 373088</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>401676</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>263406</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>628853</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>324423</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1030529</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>587829</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>340906; 466569</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>202403; 335162</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>565328; 698423</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>280443; 379919</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>933776; 1117473</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>504631; 671253</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>716.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>663327</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>611194</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1084466</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>952597</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1747792</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1563791</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>587656; 752168</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>520273; 715066</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1006694; 1168852</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>864633; 1043623</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1631013; 1876142</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1453379; 1705897</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>